--- a/cs/00_PC_考勤结果_cs.xlsx
+++ b/cs/00_PC_考勤结果_cs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-Person\demo\AttendanceTracking\docs\cs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-Person\AttendanceTracking\cs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF14B9DE-0FB4-4F39-9F3E-64D31B19D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB67D21-17C8-4C98-8757-4775722AED17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1850" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="186">
   <si>
     <t>姓名</t>
   </si>
@@ -575,6 +575,10 @@
   </si>
   <si>
     <t>108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2025-05-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -937,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A906BD8E-93E4-4865-812D-6F89FFCCAA15}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1452,15 +1456,15 @@
         <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1475,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
@@ -1484,31 +1488,31 @@
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
         <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1531,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
@@ -1540,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
         <v>21</v>
@@ -1549,13 +1553,13 @@
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
         <v>21</v>
@@ -1564,7 +1568,7 @@
         <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1587,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -1596,10 +1600,10 @@
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1608,19 +1612,19 @@
         <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
         <v>26</v>
       </c>
       <c r="R12" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -1643,7 +1647,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -1652,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
         <v>87</v>
@@ -1664,10 +1668,10 @@
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="O13" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="P13" t="s">
         <v>88</v>
@@ -1676,7 +1680,7 @@
         <v>26</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1699,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -1708,7 +1712,7 @@
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
         <v>87</v>
@@ -1720,10 +1724,10 @@
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O14" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="P14" t="s">
         <v>88</v>
@@ -1732,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="R14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -1755,19 +1759,19 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s">
         <v>24</v>
@@ -1779,16 +1783,16 @@
         <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -1844,7 +1848,7 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
@@ -1867,19 +1871,19 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
         <v>24</v>
@@ -1891,24 +1895,24 @@
         <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
         <v>26</v>
       </c>
       <c r="R17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -1923,19 +1927,19 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L18" t="s">
         <v>24</v>
@@ -1947,16 +1951,16 @@
         <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
         <v>26</v>
       </c>
       <c r="R18" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -1979,19 +1983,19 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
         <v>24</v>
@@ -2003,16 +2007,16 @@
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
         <v>26</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
@@ -2035,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -2044,7 +2048,7 @@
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
         <v>87</v>
@@ -2059,7 +2063,7 @@
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s">
         <v>88</v>
@@ -2068,7 +2072,7 @@
         <v>26</v>
       </c>
       <c r="R20" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -2091,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -2100,7 +2104,7 @@
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
         <v>87</v>
@@ -2115,7 +2119,7 @@
         <v>24</v>
       </c>
       <c r="O21" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="P21" t="s">
         <v>88</v>
@@ -2124,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -2147,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -2156,10 +2160,10 @@
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
         <v>24</v>
@@ -2171,16 +2175,16 @@
         <v>24</v>
       </c>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q22" t="s">
         <v>26</v>
       </c>
       <c r="R22" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2203,10 +2207,10 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
@@ -2227,7 +2231,7 @@
         <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="P23" t="s">
         <v>21</v>
@@ -2236,7 +2240,7 @@
         <v>26</v>
       </c>
       <c r="R23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2292,7 +2296,7 @@
         <v>26</v>
       </c>
       <c r="R24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2315,19 +2319,19 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
         <v>24</v>
@@ -2339,24 +2343,24 @@
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="s">
         <v>26</v>
       </c>
       <c r="R25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2371,7 +2375,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -2380,31 +2384,31 @@
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L26" t="s">
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
         <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
         <v>26</v>
       </c>
       <c r="R26" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -2427,7 +2431,7 @@
         <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -2436,31 +2440,31 @@
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
         <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="s">
         <v>26</v>
       </c>
       <c r="R27" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -2483,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -2492,7 +2496,7 @@
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s">
         <v>87</v>
@@ -2504,10 +2508,10 @@
         <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O28" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="P28" t="s">
         <v>88</v>
@@ -2516,7 +2520,7 @@
         <v>26</v>
       </c>
       <c r="R28" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -2539,19 +2543,19 @@
         <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s">
         <v>24</v>
@@ -2563,16 +2567,16 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q29" t="s">
         <v>26</v>
       </c>
       <c r="R29" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -2595,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
@@ -2604,13 +2608,13 @@
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M30" t="s">
         <v>24</v>
@@ -2619,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
         <v>21</v>
@@ -2628,7 +2632,7 @@
         <v>26</v>
       </c>
       <c r="R30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -2651,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="H31" t="s">
         <v>21</v>
@@ -2660,13 +2664,13 @@
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s">
         <v>24</v>
@@ -2675,7 +2679,7 @@
         <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="P31" t="s">
         <v>21</v>
@@ -2684,7 +2688,7 @@
         <v>26</v>
       </c>
       <c r="R31" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -2707,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
         <v>21</v>
@@ -2722,7 +2726,7 @@
         <v>21</v>
       </c>
       <c r="L32" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M32" t="s">
         <v>24</v>
@@ -2731,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="O32" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="P32" t="s">
         <v>21</v>
@@ -2740,7 +2744,7 @@
         <v>26</v>
       </c>
       <c r="R32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -2763,31 +2767,31 @@
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
         <v>21</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="N33" t="s">
         <v>24</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P33" t="s">
         <v>21</v>
@@ -2796,15 +2800,15 @@
         <v>26</v>
       </c>
       <c r="R33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -2819,7 +2823,7 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -2828,7 +2832,7 @@
         <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="K34" t="s">
         <v>21</v>
@@ -2837,13 +2841,13 @@
         <v>24</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N34" t="s">
         <v>24</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s">
         <v>21</v>
@@ -2852,7 +2856,7 @@
         <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
@@ -2875,31 +2879,31 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L35" t="s">
         <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P35" t="s">
         <v>21</v>
@@ -2908,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="R35" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -2931,7 +2935,7 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>21</v>
@@ -2940,22 +2944,22 @@
         <v>22</v>
       </c>
       <c r="J36" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s">
         <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="M36" t="s">
         <v>24</v>
       </c>
       <c r="N36" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="P36" t="s">
         <v>21</v>
@@ -2964,7 +2968,7 @@
         <v>26</v>
       </c>
       <c r="R36" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -2987,40 +2991,40 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K37" t="s">
         <v>87</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="M37" t="s">
         <v>24</v>
       </c>
       <c r="N37" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O37" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="P37" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="s">
         <v>26</v>
       </c>
       <c r="R37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -3043,7 +3047,7 @@
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -3052,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="K38" t="s">
         <v>87</v>
@@ -3064,10 +3068,10 @@
         <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="P38" t="s">
         <v>88</v>
@@ -3076,7 +3080,7 @@
         <v>26</v>
       </c>
       <c r="R38" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -3099,19 +3103,19 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L39" t="s">
         <v>24</v>
@@ -3120,19 +3124,19 @@
         <v>24</v>
       </c>
       <c r="N39" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O39" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q39" t="s">
         <v>26</v>
       </c>
       <c r="R39" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3188,7 +3192,7 @@
         <v>26</v>
       </c>
       <c r="R40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -3211,19 +3215,19 @@
         <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
       <c r="J41" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L41" t="s">
         <v>24</v>
@@ -3235,27 +3239,27 @@
         <v>24</v>
       </c>
       <c r="O41" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="P41" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q41" t="s">
         <v>26</v>
       </c>
       <c r="R41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
@@ -3267,19 +3271,19 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="K42" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L42" t="s">
         <v>24</v>
@@ -3291,16 +3295,16 @@
         <v>24</v>
       </c>
       <c r="O42" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q42" t="s">
         <v>26</v>
       </c>
       <c r="R42" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -3356,7 +3360,7 @@
         <v>26</v>
       </c>
       <c r="R43" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -3412,7 +3416,7 @@
         <v>26</v>
       </c>
       <c r="R44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -3468,7 +3472,7 @@
         <v>26</v>
       </c>
       <c r="R45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -3524,7 +3528,7 @@
         <v>26</v>
       </c>
       <c r="R46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
@@ -3580,18 +3584,18 @@
         <v>26</v>
       </c>
       <c r="R47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -3603,10 +3607,10 @@
         <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3636,7 +3640,7 @@
         <v>26</v>
       </c>
       <c r="R48" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
@@ -3659,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H49" t="s">
         <v>28</v>
@@ -3668,7 +3672,7 @@
         <v>22</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
         <v>21</v>
@@ -3677,13 +3681,13 @@
         <v>24</v>
       </c>
       <c r="M49" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="N49" t="s">
         <v>24</v>
       </c>
       <c r="O49" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="P49" t="s">
         <v>21</v>
@@ -3692,7 +3696,7 @@
         <v>26</v>
       </c>
       <c r="R49" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
@@ -3715,7 +3719,7 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H50" t="s">
         <v>28</v>
@@ -3724,31 +3728,31 @@
         <v>22</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="L50" t="s">
         <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="N50" t="s">
         <v>24</v>
       </c>
       <c r="O50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="Q50" t="s">
         <v>26</v>
       </c>
       <c r="R50" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
@@ -3771,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H51" t="s">
         <v>28</v>
@@ -3780,31 +3784,31 @@
         <v>22</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="K51" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s">
         <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N51" t="s">
         <v>24</v>
       </c>
       <c r="O51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P51" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="Q51" t="s">
         <v>26</v>
       </c>
       <c r="R51" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -3827,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H52" t="s">
         <v>28</v>
@@ -3836,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
         <v>21</v>
@@ -3845,13 +3849,13 @@
         <v>24</v>
       </c>
       <c r="M52" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="N52" t="s">
         <v>24</v>
       </c>
       <c r="O52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P52" t="s">
         <v>21</v>
@@ -3860,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="R52" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -3883,31 +3887,31 @@
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K53" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L53" t="s">
         <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="N53" t="s">
         <v>24</v>
       </c>
       <c r="O53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P53" t="s">
         <v>21</v>
@@ -3916,7 +3920,7 @@
         <v>26</v>
       </c>
       <c r="R53" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
@@ -3948,10 +3952,10 @@
         <v>22</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L54" t="s">
         <v>24</v>
@@ -3963,7 +3967,7 @@
         <v>24</v>
       </c>
       <c r="O54" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="P54" t="s">
         <v>21</v>
@@ -3972,7 +3976,7 @@
         <v>26</v>
       </c>
       <c r="R54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -3995,19 +3999,19 @@
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
         <v>22</v>
       </c>
       <c r="J55" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L55" t="s">
         <v>24</v>
@@ -4019,27 +4023,27 @@
         <v>24</v>
       </c>
       <c r="O55" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="P55" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q55" t="s">
         <v>26</v>
       </c>
       <c r="R55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
@@ -4051,19 +4055,19 @@
         <v>20</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
       </c>
       <c r="J56" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="K56" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L56" t="s">
         <v>24</v>
@@ -4075,16 +4079,16 @@
         <v>24</v>
       </c>
       <c r="O56" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="P56" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q56" t="s">
         <v>26</v>
       </c>
       <c r="R56" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -4092,10 +4096,10 @@
         <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -4107,10 +4111,10 @@
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -4163,10 +4167,10 @@
         <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -4196,7 +4200,7 @@
         <v>26</v>
       </c>
       <c r="R58" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
@@ -4204,10 +4208,10 @@
         <v>169</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -4260,10 +4264,10 @@
         <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
         <v>18</v>
@@ -4308,7 +4312,7 @@
         <v>26</v>
       </c>
       <c r="R60" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
@@ -4316,10 +4320,10 @@
         <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -4372,10 +4376,10 @@
         <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -4420,7 +4424,7 @@
         <v>26</v>
       </c>
       <c r="R62" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
@@ -4428,10 +4432,10 @@
         <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -4532,7 +4536,7 @@
         <v>26</v>
       </c>
       <c r="R64" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -4540,10 +4544,10 @@
         <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
@@ -4555,19 +4559,19 @@
         <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="L65" t="s">
         <v>24</v>
@@ -4579,10 +4583,10 @@
         <v>24</v>
       </c>
       <c r="O65" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="P65" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="Q65" t="s">
         <v>26</v>
@@ -4611,22 +4615,22 @@
         <v>20</v>
       </c>
       <c r="G66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="K66" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="L66" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s">
         <v>24</v>
@@ -4635,16 +4639,16 @@
         <v>24</v>
       </c>
       <c r="O66" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="P66" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="Q66" t="s">
         <v>26</v>
       </c>
       <c r="R66" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -4652,10 +4656,10 @@
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
         <v>18</v>
@@ -4667,7 +4671,7 @@
         <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="H67" t="s">
         <v>21</v>
@@ -4682,7 +4686,7 @@
         <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="M67" t="s">
         <v>24</v>
@@ -4756,7 +4760,7 @@
         <v>26</v>
       </c>
       <c r="R68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
@@ -4764,10 +4768,10 @@
         <v>169</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
         <v>18</v>
@@ -4779,7 +4783,7 @@
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
@@ -4794,7 +4798,7 @@
         <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="M69" t="s">
         <v>24</v>
@@ -4820,10 +4824,10 @@
         <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
@@ -4835,7 +4839,7 @@
         <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -4850,7 +4854,7 @@
         <v>21</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>181</v>
       </c>
       <c r="M70" t="s">
         <v>24</v>
@@ -4868,7 +4872,7 @@
         <v>26</v>
       </c>
       <c r="R70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
@@ -4876,54 +4880,110 @@
         <v>169</v>
       </c>
       <c r="B71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+      <c r="N71" t="s">
+        <v>24</v>
+      </c>
+      <c r="O71" t="s">
+        <v>24</v>
+      </c>
+      <c r="P71" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>26</v>
+      </c>
+      <c r="R71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" t="s">
         <v>172</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>173</v>
       </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="J71" t="s">
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
         <v>182</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K72" t="s">
         <v>87</v>
       </c>
-      <c r="L71" t="s">
-        <v>24</v>
-      </c>
-      <c r="M71" t="s">
-        <v>24</v>
-      </c>
-      <c r="N71" t="s">
+      <c r="L72" t="s">
+        <v>24</v>
+      </c>
+      <c r="M72" t="s">
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
         <v>183</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O72" t="s">
         <v>184</v>
       </c>
-      <c r="P71" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>26</v>
-      </c>
-      <c r="R71" t="s">
+      <c r="P72" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" t="s">
         <v>140</v>
       </c>
     </row>
